--- a/AI算法与应用小组-2024工作进展xlsx.xlsx
+++ b/AI算法与应用小组-2024工作进展xlsx.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>日期</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>做机器学习心脏学习分类的调研，和张老师讨论</t>
+  </si>
+  <si>
+    <t>20240430-20240506</t>
+  </si>
+  <si>
+    <t>双周六道题，一直在看论文总结要点</t>
+  </si>
+  <si>
+    <t>缺少灵感和创新点</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1227,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1323,10 +1332,17 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="2"/>
+    <row r="8" ht="37" customHeight="1" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2"/>

--- a/AI算法与应用小组-2024工作进展xlsx.xlsx
+++ b/AI算法与应用小组-2024工作进展xlsx.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>缺少灵感和创新点</t>
+  </si>
+  <si>
+    <t>20240506-20240513</t>
+  </si>
+  <si>
+    <t>和张老师讨论了架构，机器学习的可解释性和集成学习，
+确定了框架，正在阅读相关文献和资料，
+总结了各部分论文的创新带你，这周组会时候算出结果</t>
   </si>
 </sst>
 </file>
@@ -741,7 +749,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
@@ -749,6 +757,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -949,7 +960,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10353675" y="3352800"/>
+          <a:off x="11868150" y="3352800"/>
           <a:ext cx="6962775" cy="3629025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1227,14 +1238,14 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="65.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="46" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1342,6 +1353,14 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="58" customHeight="1" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:2">
